--- a/biology/Biologie cellulaire et moléculaire/Locus/Locus.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Locus/Locus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En génétique , un locus (pluriel « loci » ou « locus »[1]) est une position fixe (d'un gène ou d'un marqueur génétique) sur un chromosome. Chaque chromosome porte de nombreux gènes. Une variante d'un gène situé à un locus donné est un allèle. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En génétique , un locus (pluriel « loci » ou « locus ») est une position fixe (d'un gène ou d'un marqueur génétique) sur un chromosome. Chaque chromosome porte de nombreux gènes. Une variante d'un gène situé à un locus donné est un allèle. 
 Il ne faut pas confondre allèle et locus. Un allèle est une « version » d'un gène et peut se retrouver à différents endroits sur un même chromosome et même sur un chromosome différent (duplication et transposition). 
 Un locus correspond à un fragment séquentiel invariant : par exemple on peut décider de s'intéresser au locus 22q12.2. Le 22 indique la 22e paire de chromosomes ; le q indique qu'il se situe sur le bras long du chromosome et le 12.2 révèle la position exacte du locus par rapport au centromère.
 Un locus à effets quantitatifs (en anglais quantitative trait locus ou QTL) est un locus où la variation allélique est associée à la variation d’un caractère quantitatif. La présence d’un QTL est déduite de la cartographie génétique, où la variation totale est divisée en des parties liées à un nombre de régions chromosomiques distinctes.
@@ -515,7 +527,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, l'unité locus se trouve dans le terme locus niger, qui est l'ancien nom, répertorié dans les Nomina anatomica, de la substance noire (substantia nigra; terme de la nomenclature actuelle, la Terminologia anatomica). Cette région est constituée de neurones dopaminergiques qui interviennent notamment dans la régulation motrice. Sa lésion est à l'origine des troubles de type parkinsonien.
 </t>
